--- a/padam_excel/TS 1.4 Padam Input.xlsx
+++ b/padam_excel/TS 1.4 Padam Input.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="1.4 padam" sheetId="1" r:id="rId1"/>
-    <sheet name="new sheet dt 01.06.2020" sheetId="2" r:id="rId2"/>
+    <sheet name="ver 0.2  dt 30.06.2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'new sheet dt 01.06.2020'!$A$1:$F$2006</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ver 0.2  dt 30.06.2020'!$A$1:$F$2006</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
